--- a/data/Departamento_de_Justicia/djDelitos2025.xlsx
+++ b/data/Departamento_de_Justicia/djDelitos2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gnper\Documents\ViolenciaGeneroPR\data\Departamento_de_Justicia\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9136F7-79DC-4912-A766-00D72322B0CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0489CA34-9C17-4CE3-A3F2-52B43EF90348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,6 +119,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -363,7 +364,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -402,66 +403,352 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>228</v>
+      </c>
+      <c r="D2">
+        <v>90</v>
+      </c>
+      <c r="E2">
+        <v>122</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <f>SUM(B2:G2)</f>
+        <v>487</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="D3">
+        <v>51</v>
+      </c>
+      <c r="E3">
+        <v>40</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H14" si="0">SUM(B3:G3)</f>
+        <v>199</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>182</v>
+      </c>
+      <c r="D4">
+        <v>97</v>
+      </c>
+      <c r="E4">
+        <v>89</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>408</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>58</v>
+      </c>
+      <c r="C5">
+        <v>318</v>
+      </c>
+      <c r="D5">
+        <v>179</v>
+      </c>
+      <c r="E5">
+        <v>178</v>
+      </c>
+      <c r="F5">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>751</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>108</v>
+      </c>
+      <c r="E6">
+        <v>116</v>
+      </c>
+      <c r="F6">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B8">
+        <v>29</v>
+      </c>
+      <c r="C8">
+        <v>144</v>
+      </c>
+      <c r="D8">
+        <v>55</v>
+      </c>
+      <c r="E8">
+        <v>66</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B9">
+        <v>24</v>
+      </c>
+      <c r="C9">
+        <v>108</v>
+      </c>
+      <c r="D9">
+        <v>58</v>
+      </c>
+      <c r="E9">
+        <v>62</v>
+      </c>
+      <c r="F9">
+        <v>7</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>261</v>
+      </c>
     </row>
     <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="B10">
+        <v>31</v>
+      </c>
+      <c r="C10">
+        <v>255</v>
+      </c>
+      <c r="D10">
+        <v>99</v>
+      </c>
+      <c r="E10">
+        <v>100</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>490</v>
+      </c>
     </row>
     <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>55</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>308</v>
+      </c>
+      <c r="D12">
+        <v>136</v>
+      </c>
+      <c r="E12">
+        <v>142</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>637</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B13">
+        <v>67</v>
+      </c>
+      <c r="C13">
+        <v>460</v>
+      </c>
+      <c r="D13">
+        <v>223</v>
+      </c>
+      <c r="E13">
+        <v>187</v>
+      </c>
+      <c r="F13">
+        <v>15</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>963</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>70</v>
+      </c>
+      <c r="D14">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>142</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -469,31 +756,31 @@
       </c>
       <c r="B15">
         <f>SUM(B2:B14)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:G15" si="0">SUM(C2:C14)</f>
-        <v>0</v>
+        <f t="shared" ref="C15:G15" si="1">SUM(C2:C14)</f>
+        <v>2504</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1235</v>
       </c>
       <c r="E15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>1251</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>69</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>55</v>
       </c>
       <c r="H15">
         <f>SUM(B15:G15)</f>
-        <v>0</v>
+        <v>5564</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
